--- a/docs/技术类-2/ECIPCS_数据库设计_1.0.xlsx
+++ b/docs/技术类-2/ECIPCS_数据库设计_1.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="124">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,18 +182,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指标点id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>indexPointId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,27 +493,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>评价结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标点编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teachingContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标点编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评价结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标点编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teachingContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标点编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生编号</t>
+    <t>每道题对应指标点的满分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,14 +607,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -914,29 +910,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -950,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2">
         <v>64</v>
@@ -961,10 +957,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2">
         <v>64</v>
@@ -972,67 +968,67 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2">
         <v>64</v>
@@ -1040,13 +1036,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2">
         <v>64</v>
@@ -1060,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
@@ -1074,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
@@ -1082,42 +1078,42 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1131,7 +1127,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2">
         <v>64</v>
@@ -1139,13 +1135,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="2">
         <v>64</v>
@@ -1153,42 +1149,42 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1202,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2">
         <v>64</v>
@@ -1210,13 +1206,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2">
         <v>64</v>
@@ -1224,13 +1220,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2">
         <v>64</v>
@@ -1238,13 +1234,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2">
         <v>4</v>
@@ -1252,13 +1248,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2">
         <v>64</v>
@@ -1266,30 +1262,30 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2">
         <v>4</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2">
         <v>500</v>
@@ -1297,13 +1293,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" s="4">
         <v>500</v>
@@ -1311,42 +1307,42 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="E32" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="A34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1360,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2">
         <v>64</v>
@@ -1374,7 +1370,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E37" s="2">
         <v>64</v>
@@ -1388,7 +1384,7 @@
         <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2">
         <v>64</v>
@@ -1402,36 +1398,36 @@
         <v>35</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="A41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1445,7 +1441,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E43" s="2">
         <v>64</v>
@@ -1459,7 +1455,7 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E44" s="2">
         <v>64</v>
@@ -1467,13 +1463,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E45" s="2">
         <v>64</v>
@@ -1487,7 +1483,7 @@
         <v>26</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E46" s="2">
         <v>4</v>
@@ -1495,13 +1491,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
@@ -1509,13 +1505,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E48" s="2">
         <v>4</v>
@@ -1529,7 +1525,7 @@
         <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E49" s="2">
         <v>500</v>
@@ -1543,7 +1539,7 @@
         <v>31</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E50" s="2">
         <v>500</v>
@@ -1551,13 +1547,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E51" s="2">
         <v>500</v>
@@ -1571,62 +1567,62 @@
         <v>32</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E52" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="A54" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E57" s="2">
         <v>64</v>
@@ -1640,7 +1636,7 @@
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E58" s="2">
         <v>64</v>
@@ -1648,42 +1644,42 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E59" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="A61" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1691,13 +1687,13 @@
         <v>37</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E63" s="2">
         <v>64</v>
@@ -1705,13 +1701,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E64" s="2">
         <v>64</v>
@@ -1719,13 +1715,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E65" s="2">
         <v>64</v>
@@ -1733,13 +1729,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E66" s="2">
         <v>64</v>
@@ -1747,13 +1743,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E67" s="2">
         <v>64</v>
@@ -1761,13 +1757,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E68" s="4">
         <v>4</v>
@@ -1775,18 +1771,24 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="A71" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
@@ -1795,10 +1797,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/docs/技术类-2/ECIPCS_数据库设计_1.0.xlsx
+++ b/docs/技术类-2/ECIPCS_数据库设计_1.0.xlsx
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69:E69"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1161,55 +1161,55 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="2">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>118</v>
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>54</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>54</v>
@@ -1234,89 +1234,89 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E29" s="2">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="4">
+        <v>119</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E32" s="4">
-        <v>4</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1811,7 +1811,7 @@
     <mergeCell ref="A61:E61"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A41:E41"/>
   </mergeCells>

--- a/docs/技术类-2/ECIPCS_数据库设计_1.0.xlsx
+++ b/docs/技术类-2/ECIPCS_数据库设计_1.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="137">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,6 +558,18 @@
   </si>
   <si>
     <t>总值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacherId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,6 +718,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,9 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:F79"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1031,14 +1043,14 @@
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1100,14 +1112,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1211,14 +1223,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -1294,14 +1306,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1434,14 +1446,14 @@
       <c r="E33" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -1534,14 +1546,14 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -1650,14 +1662,14 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -1739,14 +1751,14 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -1812,13 +1824,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="E65" s="2">
         <v>64</v>
@@ -1826,96 +1838,96 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E66" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="4">
-        <v>4</v>
+      <c r="D67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="2">
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E68" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E72" s="2">
-        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>48</v>
@@ -1926,10 +1938,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>48</v>
@@ -1940,10 +1952,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>48</v>
@@ -1954,90 +1966,90 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="E76" s="2">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E78" s="2">
         <v>4</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-    </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E81" s="2">
-        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>48</v>
@@ -2048,24 +2060,24 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E83" s="2">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>48</v>
@@ -2076,34 +2088,48 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E85" s="2">
-        <v>64</v>
-      </c>
-      <c r="F85" s="2" t="s">
+      <c r="E86" s="2">
+        <v>64</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A43:F43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
